--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H2">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I2">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J2">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N2">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q2">
-        <v>183.2740036644615</v>
+        <v>515.4841151153282</v>
       </c>
       <c r="R2">
-        <v>1649.466032980153</v>
+        <v>4639.357036037954</v>
       </c>
       <c r="S2">
-        <v>0.0004429191871516195</v>
+        <v>0.001272853605853509</v>
       </c>
       <c r="T2">
-        <v>0.0004429191871516196</v>
+        <v>0.001272853605853509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H3">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I3">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J3">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P3">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q3">
-        <v>201.3664133786169</v>
+        <v>336.6776578127077</v>
       </c>
       <c r="R3">
-        <v>1812.297720407552</v>
+        <v>3030.098920314369</v>
       </c>
       <c r="S3">
-        <v>0.0004866432028002266</v>
+        <v>0.0008313376846953706</v>
       </c>
       <c r="T3">
-        <v>0.0004866432028002268</v>
+        <v>0.0008313376846953704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H4">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I4">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J4">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N4">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q4">
-        <v>1959.481756908804</v>
+        <v>3569.462026371011</v>
       </c>
       <c r="R4">
-        <v>17635.33581217924</v>
+        <v>32125.1582373391</v>
       </c>
       <c r="S4">
-        <v>0.004735489210992596</v>
+        <v>0.008813855709611981</v>
       </c>
       <c r="T4">
-        <v>0.004735489210992597</v>
+        <v>0.008813855709611979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H5">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I5">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J5">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N5">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O5">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P5">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q5">
-        <v>30.34782802172834</v>
+        <v>38.73540570940344</v>
       </c>
       <c r="R5">
-        <v>273.1304521955551</v>
+        <v>348.6186513846311</v>
       </c>
       <c r="S5">
-        <v>7.33417454218441E-05</v>
+        <v>9.56469838462083E-05</v>
       </c>
       <c r="T5">
-        <v>7.334174542184412E-05</v>
+        <v>9.56469838462083E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H6">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I6">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J6">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N6">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O6">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P6">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q6">
-        <v>4092.500956085243</v>
+        <v>7480.819155964219</v>
       </c>
       <c r="R6">
-        <v>36832.50860476719</v>
+        <v>67327.37240367797</v>
       </c>
       <c r="S6">
-        <v>0.009890367213263375</v>
+        <v>0.01847193222486929</v>
       </c>
       <c r="T6">
-        <v>0.009890367213263376</v>
+        <v>0.01847193222486929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H7">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I7">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J7">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N7">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q7">
-        <v>2053.976360345897</v>
+        <v>2099.666129240729</v>
       </c>
       <c r="R7">
-        <v>18485.78724311308</v>
+        <v>18896.99516316657</v>
       </c>
       <c r="S7">
-        <v>0.004963854784438557</v>
+        <v>0.005184578002165236</v>
       </c>
       <c r="T7">
-        <v>0.004963854784438559</v>
+        <v>0.005184578002165235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J8">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N8">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q8">
-        <v>271.4201317486843</v>
+        <v>456.5929632300069</v>
       </c>
       <c r="R8">
-        <v>2442.781185738158</v>
+        <v>4109.336669070062</v>
       </c>
       <c r="S8">
-        <v>0.0006559423689505176</v>
+        <v>0.001127437262590774</v>
       </c>
       <c r="T8">
-        <v>0.0006559423689505178</v>
+        <v>0.001127437262590774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J9">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P9">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q9">
         <v>298.2141348810525</v>
@@ -1013,10 +1013,10 @@
         <v>2683.927213929473</v>
       </c>
       <c r="S9">
-        <v>0.0007206955682621542</v>
+        <v>0.0007363620444732989</v>
       </c>
       <c r="T9">
-        <v>0.0007206955682621544</v>
+        <v>0.0007363620444732988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J10">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N10">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q10">
-        <v>2901.899811132135</v>
+        <v>3161.671128106625</v>
       </c>
       <c r="R10">
-        <v>26117.09830018921</v>
+        <v>28455.04015295962</v>
       </c>
       <c r="S10">
-        <v>0.007013035563380974</v>
+        <v>0.007806922420942285</v>
       </c>
       <c r="T10">
-        <v>0.007013035563380975</v>
+        <v>0.007806922420942284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J11">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N11">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O11">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P11">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q11">
-        <v>44.94369804363667</v>
+        <v>34.31010414514155</v>
       </c>
       <c r="R11">
-        <v>404.4932823927301</v>
+        <v>308.790937306274</v>
       </c>
       <c r="S11">
-        <v>0.000108615656378196</v>
+        <v>8.471985556447703E-05</v>
       </c>
       <c r="T11">
-        <v>0.000108615656378196</v>
+        <v>8.471985556447704E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J12">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N12">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O12">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P12">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q12">
-        <v>6060.800367060813</v>
+        <v>6626.177772801626</v>
       </c>
       <c r="R12">
-        <v>54547.20330354731</v>
+        <v>59635.59995521464</v>
       </c>
       <c r="S12">
-        <v>0.01464716609225987</v>
+        <v>0.0163616181834235</v>
       </c>
       <c r="T12">
-        <v>0.01464716609225988</v>
+        <v>0.01636161818342349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J13">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N13">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q13">
-        <v>3041.841849837152</v>
+        <v>1859.791119905251</v>
       </c>
       <c r="R13">
-        <v>27376.57664853437</v>
+        <v>16738.12007914726</v>
       </c>
       <c r="S13">
-        <v>0.007351234177435617</v>
+        <v>0.004592269215853754</v>
       </c>
       <c r="T13">
-        <v>0.00735123417743562</v>
+        <v>0.004592269215853754</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H14">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I14">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J14">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N14">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q14">
-        <v>3786.921669667279</v>
+        <v>4224.364013138459</v>
       </c>
       <c r="R14">
-        <v>34082.29502700551</v>
+        <v>38019.27611824613</v>
       </c>
       <c r="S14">
-        <v>0.009151872247013769</v>
+        <v>0.01043096539523454</v>
       </c>
       <c r="T14">
-        <v>0.009151872247013772</v>
+        <v>0.01043096539523454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H15">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I15">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J15">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P15">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q15">
-        <v>4160.758313343546</v>
+        <v>2759.054915540025</v>
       </c>
       <c r="R15">
-        <v>37446.8248200919</v>
+        <v>24831.49423986023</v>
       </c>
       <c r="S15">
-        <v>0.01005532510466905</v>
+        <v>0.006812766669264418</v>
       </c>
       <c r="T15">
-        <v>0.01005532510466905</v>
+        <v>0.006812766669264418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H16">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I16">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J16">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N16">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q16">
-        <v>40488.03309901473</v>
+        <v>29251.54527233579</v>
       </c>
       <c r="R16">
-        <v>364392.2978911325</v>
+        <v>263263.9074510221</v>
       </c>
       <c r="S16">
-        <v>0.09784762896550847</v>
+        <v>0.072229063485981</v>
       </c>
       <c r="T16">
-        <v>0.0978476289655085</v>
+        <v>0.072229063485981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H17">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I17">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J17">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N17">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O17">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P17">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q17">
-        <v>627.0657336281234</v>
+        <v>317.434522451798</v>
       </c>
       <c r="R17">
-        <v>5643.59160265311</v>
+        <v>2856.910702066183</v>
       </c>
       <c r="S17">
-        <v>0.001515432846317301</v>
+        <v>0.0007838217797162596</v>
       </c>
       <c r="T17">
-        <v>0.001515432846317302</v>
+        <v>0.0007838217797162598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H18">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I18">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J18">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N18">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O18">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P18">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q18">
-        <v>84561.80496884329</v>
+        <v>61304.90213880186</v>
       </c>
       <c r="R18">
-        <v>761056.2447195896</v>
+        <v>551744.1192492167</v>
       </c>
       <c r="S18">
-        <v>0.2043609304756872</v>
+        <v>0.1513764701098742</v>
       </c>
       <c r="T18">
-        <v>0.2043609304756872</v>
+        <v>0.1513764701098742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H19">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I19">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J19">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N19">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q19">
-        <v>42440.53947890309</v>
+        <v>17206.64861609916</v>
       </c>
       <c r="R19">
-        <v>381964.8553101278</v>
+        <v>154859.8375448924</v>
       </c>
       <c r="S19">
-        <v>0.1025662607485069</v>
+        <v>0.04248733199228868</v>
       </c>
       <c r="T19">
-        <v>0.102566260748507</v>
+        <v>0.04248733199228868</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H20">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I20">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J20">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N20">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P20">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q20">
-        <v>110.5568800319219</v>
+        <v>90.475562380837</v>
       </c>
       <c r="R20">
-        <v>995.011920287297</v>
+        <v>814.280061427533</v>
       </c>
       <c r="S20">
-        <v>0.000267183356388112</v>
+        <v>0.0002234058091049178</v>
       </c>
       <c r="T20">
-        <v>0.0002671833563881121</v>
+        <v>0.0002234058091049178</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H21">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I21">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J21">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>28.990976</v>
       </c>
       <c r="O21">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P21">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q21">
-        <v>121.4708139792498</v>
+        <v>59.09221940787201</v>
       </c>
       <c r="R21">
-        <v>1093.237325813248</v>
+        <v>531.8299746708481</v>
       </c>
       <c r="S21">
-        <v>0.0002935591143020768</v>
+        <v>0.0001459128270797806</v>
       </c>
       <c r="T21">
-        <v>0.0002935591143020769</v>
+        <v>0.0001459128270797806</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H22">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I22">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J22">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N22">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P22">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q22">
-        <v>1182.023555942613</v>
+        <v>626.496675189897</v>
       </c>
       <c r="R22">
-        <v>10638.21200348352</v>
+        <v>5638.470076709073</v>
       </c>
       <c r="S22">
-        <v>0.002856602148282137</v>
+        <v>0.001546970175583947</v>
       </c>
       <c r="T22">
-        <v>0.002856602148282138</v>
+        <v>0.001546970175583947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H23">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I23">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J23">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N23">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O23">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P23">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q23">
-        <v>18.30680355502167</v>
+        <v>6.798672379698999</v>
       </c>
       <c r="R23">
-        <v>164.761231995195</v>
+        <v>61.188051417291</v>
       </c>
       <c r="S23">
-        <v>4.424214229956758E-05</v>
+        <v>1.678754863586912E-05</v>
       </c>
       <c r="T23">
-        <v>4.424214229956759E-05</v>
+        <v>1.678754863586912E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H24">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I24">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J24">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N24">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O24">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P24">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q24">
-        <v>2468.730579274058</v>
+        <v>1313.001313442559</v>
       </c>
       <c r="R24">
-        <v>22218.57521346652</v>
+        <v>11817.01182098303</v>
       </c>
       <c r="S24">
-        <v>0.0059661933476954</v>
+        <v>0.003242114368416275</v>
       </c>
       <c r="T24">
-        <v>0.005966193347695402</v>
+        <v>0.003242114368416275</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H25">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I25">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J25">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N25">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P25">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q25">
-        <v>1239.025794814336</v>
+        <v>368.524399267956</v>
       </c>
       <c r="R25">
-        <v>11151.23215332903</v>
+        <v>3316.719593411604</v>
       </c>
       <c r="S25">
-        <v>0.002994359739659412</v>
+        <v>0.0009099749084378096</v>
       </c>
       <c r="T25">
-        <v>0.002994359739659413</v>
+        <v>0.0009099749084378095</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H26">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N26">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P26">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q26">
-        <v>1279.267845287135</v>
+        <v>1796.307325803373</v>
       </c>
       <c r="R26">
-        <v>11513.41060758421</v>
+        <v>16166.76593223036</v>
       </c>
       <c r="S26">
-        <v>0.003091612901200853</v>
+        <v>0.004435512540203799</v>
       </c>
       <c r="T26">
-        <v>0.003091612901200854</v>
+        <v>0.004435512540203799</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H27">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>28.990976</v>
       </c>
       <c r="O27">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P27">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q27">
-        <v>1405.554375445846</v>
+        <v>1173.220523057209</v>
       </c>
       <c r="R27">
-        <v>12649.98937901261</v>
+        <v>10558.98470751488</v>
       </c>
       <c r="S27">
-        <v>0.003396810180507852</v>
+        <v>0.002896962155469344</v>
       </c>
       <c r="T27">
-        <v>0.003396810180507853</v>
+        <v>0.002896962155469343</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H28">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N28">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P28">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q28">
-        <v>13677.346240711</v>
+        <v>12438.50314517003</v>
       </c>
       <c r="R28">
-        <v>123096.1161663989</v>
+        <v>111946.5283065303</v>
       </c>
       <c r="S28">
-        <v>0.03305411001124797</v>
+        <v>0.0307136400822123</v>
       </c>
       <c r="T28">
-        <v>0.03305411001124797</v>
+        <v>0.0307136400822123</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H29">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N29">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O29">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P29">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q29">
-        <v>211.83037302758</v>
+        <v>134.9812554906761</v>
       </c>
       <c r="R29">
-        <v>1906.47335724822</v>
+        <v>1214.831299416085</v>
       </c>
       <c r="S29">
-        <v>0.000511931505611526</v>
+        <v>0.0003333010130399495</v>
       </c>
       <c r="T29">
-        <v>0.000511931505611526</v>
+        <v>0.0003333010130399495</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H30">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N30">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O30">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P30">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q30">
-        <v>28565.99831535137</v>
+        <v>26068.40804369366</v>
       </c>
       <c r="R30">
-        <v>257093.9848381623</v>
+        <v>234615.672393243</v>
       </c>
       <c r="S30">
-        <v>0.06903558879618335</v>
+        <v>0.06436913612721611</v>
       </c>
       <c r="T30">
-        <v>0.06903558879618335</v>
+        <v>0.06436913612721611</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H31">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N31">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P31">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q31">
-        <v>14336.92646110901</v>
+        <v>7316.705867556193</v>
       </c>
       <c r="R31">
-        <v>129032.3381499811</v>
+        <v>65850.35280800574</v>
       </c>
       <c r="S31">
-        <v>0.03464812077785308</v>
+        <v>0.01806669725294023</v>
       </c>
       <c r="T31">
-        <v>0.03464812077785309</v>
+        <v>0.01806669725294023</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H32">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N32">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P32">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q32">
-        <v>3268.546217386504</v>
+        <v>7784.992889708247</v>
       </c>
       <c r="R32">
-        <v>29416.91595647853</v>
+        <v>70064.93600737423</v>
       </c>
       <c r="S32">
-        <v>0.007899111738851885</v>
+        <v>0.01922300994472374</v>
       </c>
       <c r="T32">
-        <v>0.007899111738851886</v>
+        <v>0.01922300994472374</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H33">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>28.990976</v>
       </c>
       <c r="O33">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P33">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q33">
-        <v>3591.209967575951</v>
+        <v>5084.605122330796</v>
       </c>
       <c r="R33">
-        <v>32320.88970818356</v>
+        <v>45761.44610097716</v>
       </c>
       <c r="S33">
-        <v>0.008678894812827015</v>
+        <v>0.01255510649993942</v>
       </c>
       <c r="T33">
-        <v>0.008678894812827017</v>
+        <v>0.01255510649993942</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H34">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N34">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P34">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q34">
-        <v>34945.80003996527</v>
+        <v>53907.06654300086</v>
       </c>
       <c r="R34">
-        <v>314512.2003596874</v>
+        <v>485163.5988870077</v>
       </c>
       <c r="S34">
-        <v>0.08445368704009934</v>
+        <v>0.1331094441482303</v>
       </c>
       <c r="T34">
-        <v>0.08445368704009935</v>
+        <v>0.1331094441482303</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H35">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N35">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O35">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P35">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q35">
-        <v>541.2293969848535</v>
+        <v>584.9935025838844</v>
       </c>
       <c r="R35">
-        <v>4871.064572863681</v>
+        <v>5264.941523254959</v>
       </c>
       <c r="S35">
-        <v>0.001307991748867854</v>
+        <v>0.00144448891310294</v>
       </c>
       <c r="T35">
-        <v>0.001307991748867855</v>
+        <v>0.00144448891310294</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H36">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N36">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O36">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P36">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q36">
-        <v>72986.502461925</v>
+        <v>112977.5336051727</v>
       </c>
       <c r="R36">
-        <v>656878.5221573251</v>
+        <v>1016797.802446554</v>
       </c>
       <c r="S36">
-        <v>0.1763868399069847</v>
+        <v>0.2789685594823948</v>
       </c>
       <c r="T36">
-        <v>0.1763868399069848</v>
+        <v>0.2789685594823948</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H37">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N37">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P37">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q37">
-        <v>36631.03620249932</v>
+        <v>31709.77612616305</v>
       </c>
       <c r="R37">
-        <v>329679.3258224939</v>
+        <v>285387.9851354674</v>
       </c>
       <c r="S37">
-        <v>0.08852640557269957</v>
+        <v>0.07829902357701957</v>
       </c>
       <c r="T37">
-        <v>0.08852640557269961</v>
+        <v>0.07829902357701957</v>
       </c>
     </row>
   </sheetData>
